--- a/bpm_card_requests_final.xlsx
+++ b/bpm_card_requests_final.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BBCAFFF-43DE-434E-9BAB-FA6E1A6EE105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crayondata-my.sharepoint.com/personal/smrithi_crayondata_ai/Documents/Documents/Hackathon_2025/hackathon_2025/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{0BBCAFFF-43DE-434E-9BAB-FA6E1A6EE105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7DCD4C5-DD1A-41AE-BFBB-2612FF187413}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bpm_card_requests" sheetId="1" r:id="rId1"/>
@@ -1945,7 +1950,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2322,20 +2327,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="H206" sqref="H206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="47.54296875" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2358,7 +2365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2378,7 +2385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2396,7 +2403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2416,7 +2423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2434,7 +2441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2454,7 +2461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2472,7 +2479,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -2492,7 +2499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2510,7 +2517,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2530,7 +2537,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -2548,7 +2555,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2568,7 +2575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2586,7 +2593,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -2604,7 +2611,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -2622,7 +2629,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -2640,7 +2647,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -2660,7 +2667,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -2680,7 +2687,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -2700,7 +2707,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -2718,7 +2725,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -2736,7 +2743,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -2756,7 +2763,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -2776,7 +2783,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -2796,7 +2803,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -2816,7 +2823,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -2834,7 +2841,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -2852,7 +2859,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -2872,7 +2879,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2892,7 +2899,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -2912,7 +2919,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -2930,7 +2937,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -2948,7 +2955,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -2966,7 +2973,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -2986,7 +2993,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -3004,7 +3011,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -3022,7 +3029,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>134</v>
       </c>
@@ -3040,7 +3047,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>137</v>
       </c>
@@ -3060,7 +3067,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>141</v>
       </c>
@@ -3080,7 +3087,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -3098,7 +3105,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -3116,7 +3123,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -3134,7 +3141,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>154</v>
       </c>
@@ -3154,7 +3161,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>158</v>
       </c>
@@ -3172,7 +3179,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -3192,7 +3199,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>164</v>
       </c>
@@ -3212,7 +3219,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>167</v>
       </c>
@@ -3232,7 +3239,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -3252,7 +3259,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>173</v>
       </c>
@@ -3272,7 +3279,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>177</v>
       </c>
@@ -3290,7 +3297,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -3310,7 +3317,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>183</v>
       </c>
@@ -3330,7 +3337,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -3350,7 +3357,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>187</v>
       </c>
@@ -3368,7 +3375,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>190</v>
       </c>
@@ -3388,7 +3395,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -3408,7 +3415,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -3426,7 +3433,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>200</v>
       </c>
@@ -3446,7 +3453,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -3464,7 +3471,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>206</v>
       </c>
@@ -3482,7 +3489,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>209</v>
       </c>
@@ -3500,7 +3507,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>212</v>
       </c>
@@ -3520,7 +3527,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -3538,7 +3545,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>219</v>
       </c>
@@ -3556,7 +3563,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>221</v>
       </c>
@@ -3574,7 +3581,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>224</v>
       </c>
@@ -3594,7 +3601,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>227</v>
       </c>
@@ -3612,7 +3619,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>229</v>
       </c>
@@ -3632,7 +3639,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -3650,7 +3657,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>235</v>
       </c>
@@ -3668,7 +3675,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>238</v>
       </c>
@@ -3686,7 +3693,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>241</v>
       </c>
@@ -3704,7 +3711,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>243</v>
       </c>
@@ -3722,7 +3729,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>246</v>
       </c>
@@ -3740,7 +3747,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>249</v>
       </c>
@@ -3758,7 +3765,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>252</v>
       </c>
@@ -3778,7 +3785,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>254</v>
       </c>
@@ -3796,7 +3803,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>258</v>
       </c>
@@ -3814,7 +3821,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>261</v>
       </c>
@@ -3832,7 +3839,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>264</v>
       </c>
@@ -3852,7 +3859,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>267</v>
       </c>
@@ -3872,7 +3879,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>270</v>
       </c>
@@ -3892,7 +3899,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>274</v>
       </c>
@@ -3912,7 +3919,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>277</v>
       </c>
@@ -3930,7 +3937,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>279</v>
       </c>
@@ -3948,7 +3955,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>282</v>
       </c>
@@ -3966,7 +3973,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>284</v>
       </c>
@@ -3984,7 +3991,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>286</v>
       </c>
@@ -4002,7 +4009,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>289</v>
       </c>
@@ -4022,7 +4029,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>292</v>
       </c>
@@ -4040,7 +4047,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>294</v>
       </c>
@@ -4060,7 +4067,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>298</v>
       </c>
@@ -4078,7 +4085,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>301</v>
       </c>
@@ -4098,7 +4105,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>304</v>
       </c>
@@ -4118,7 +4125,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>307</v>
       </c>
@@ -4138,7 +4145,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>310</v>
       </c>
@@ -4158,7 +4165,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>313</v>
       </c>
@@ -4176,7 +4183,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>315</v>
       </c>
@@ -4196,7 +4203,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>318</v>
       </c>
@@ -4216,7 +4223,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>321</v>
       </c>
@@ -4236,7 +4243,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>324</v>
       </c>
@@ -4254,7 +4261,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>327</v>
       </c>
@@ -4274,7 +4281,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>330</v>
       </c>
@@ -4292,7 +4299,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>333</v>
       </c>
@@ -4310,7 +4317,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>336</v>
       </c>
@@ -4330,7 +4337,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>339</v>
       </c>
@@ -4348,7 +4355,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>342</v>
       </c>
@@ -4368,7 +4375,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>344</v>
       </c>
@@ -4388,7 +4395,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>347</v>
       </c>
@@ -4408,7 +4415,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>350</v>
       </c>
@@ -4428,7 +4435,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>353</v>
       </c>
@@ -4448,7 +4455,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>355</v>
       </c>
@@ -4466,7 +4473,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>358</v>
       </c>
@@ -4484,7 +4491,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>361</v>
       </c>
@@ -4504,7 +4511,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>363</v>
       </c>
@@ -4522,7 +4529,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>366</v>
       </c>
@@ -4542,7 +4549,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>368</v>
       </c>
@@ -4562,7 +4569,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>371</v>
       </c>
@@ -4580,7 +4587,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>374</v>
       </c>
@@ -4598,7 +4605,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>376</v>
       </c>
@@ -4618,7 +4625,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>379</v>
       </c>
@@ -4636,7 +4643,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>382</v>
       </c>
@@ -4654,7 +4661,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>385</v>
       </c>
@@ -4672,7 +4679,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>388</v>
       </c>
@@ -4692,7 +4699,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>391</v>
       </c>
@@ -4710,7 +4717,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>394</v>
       </c>
@@ -4730,7 +4737,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>397</v>
       </c>
@@ -4750,7 +4757,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>400</v>
       </c>
@@ -4770,7 +4777,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>403</v>
       </c>
@@ -4790,7 +4797,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>405</v>
       </c>
@@ -4810,7 +4817,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>408</v>
       </c>
@@ -4828,7 +4835,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>411</v>
       </c>
@@ -4848,7 +4855,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>414</v>
       </c>
@@ -4868,7 +4875,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>417</v>
       </c>
@@ -4886,7 +4893,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>420</v>
       </c>
@@ -4904,7 +4911,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>422</v>
       </c>
@@ -4922,7 +4929,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>425</v>
       </c>
@@ -4940,7 +4947,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>428</v>
       </c>
@@ -4958,7 +4965,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>430</v>
       </c>
@@ -4976,7 +4983,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>433</v>
       </c>
@@ -4996,7 +5003,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>436</v>
       </c>
@@ -5016,7 +5023,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>439</v>
       </c>
@@ -5036,7 +5043,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>442</v>
       </c>
@@ -5054,7 +5061,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>445</v>
       </c>
@@ -5072,7 +5079,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>448</v>
       </c>
@@ -5092,7 +5099,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>451</v>
       </c>
@@ -5110,7 +5117,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>454</v>
       </c>
@@ -5128,7 +5135,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>457</v>
       </c>
@@ -5148,7 +5155,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>460</v>
       </c>
@@ -5166,7 +5173,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>463</v>
       </c>
@@ -5186,7 +5193,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>466</v>
       </c>
@@ -5204,7 +5211,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>469</v>
       </c>
@@ -5222,7 +5229,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>473</v>
       </c>
@@ -5240,7 +5247,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>475</v>
       </c>
@@ -5260,7 +5267,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>478</v>
       </c>
@@ -5278,7 +5285,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>481</v>
       </c>
@@ -5296,7 +5303,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>484</v>
       </c>
@@ -5314,7 +5321,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>487</v>
       </c>
@@ -5334,7 +5341,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>490</v>
       </c>
@@ -5354,7 +5361,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>493</v>
       </c>
@@ -5372,7 +5379,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>496</v>
       </c>
@@ -5392,7 +5399,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>499</v>
       </c>
@@ -5412,7 +5419,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>501</v>
       </c>
@@ -5432,7 +5439,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>504</v>
       </c>
@@ -5450,7 +5457,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>507</v>
       </c>
@@ -5470,7 +5477,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>510</v>
       </c>
@@ -5488,7 +5495,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>512</v>
       </c>
@@ -5506,7 +5513,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>514</v>
       </c>
@@ -5524,7 +5531,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>516</v>
       </c>
@@ -5544,7 +5551,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>519</v>
       </c>
@@ -5564,7 +5571,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>522</v>
       </c>
@@ -5584,7 +5591,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>525</v>
       </c>
@@ -5602,7 +5609,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>528</v>
       </c>
@@ -5620,7 +5627,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>531</v>
       </c>
@@ -5640,7 +5647,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>534</v>
       </c>
@@ -5658,7 +5665,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>537</v>
       </c>
@@ -5678,7 +5685,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>539</v>
       </c>
@@ -5698,7 +5705,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>542</v>
       </c>
@@ -5716,7 +5723,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>545</v>
       </c>
@@ -5736,7 +5743,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>548</v>
       </c>
@@ -5754,7 +5761,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>551</v>
       </c>
@@ -5774,7 +5781,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>554</v>
       </c>
@@ -5792,7 +5799,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>557</v>
       </c>
@@ -5812,7 +5819,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>560</v>
       </c>
@@ -5830,7 +5837,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>563</v>
       </c>
@@ -5848,7 +5855,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>566</v>
       </c>
@@ -5866,7 +5873,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>569</v>
       </c>
@@ -5884,7 +5891,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>571</v>
       </c>
@@ -5904,7 +5911,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>574</v>
       </c>
@@ -5922,7 +5929,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>577</v>
       </c>
@@ -5940,7 +5947,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>580</v>
       </c>
@@ -5960,7 +5967,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>583</v>
       </c>
@@ -5980,7 +5987,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>586</v>
       </c>
@@ -6000,7 +6007,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>589</v>
       </c>
@@ -6020,7 +6027,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>592</v>
       </c>
@@ -6038,7 +6045,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>595</v>
       </c>
@@ -6058,7 +6065,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>598</v>
       </c>
@@ -6078,7 +6085,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>601</v>
       </c>
@@ -6096,7 +6103,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>604</v>
       </c>
@@ -6116,7 +6123,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>607</v>
       </c>
@@ -6136,7 +6143,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>610</v>
       </c>
@@ -6154,7 +6161,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>613</v>
       </c>
@@ -6180,7 +6187,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>619</v>
       </c>
@@ -6206,7 +6213,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>623</v>
       </c>
@@ -6232,7 +6239,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>628</v>
       </c>
@@ -6258,7 +6265,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>632</v>
       </c>
